--- a/Data_file/import_OB.xlsx
+++ b/Data_file/import_OB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -19,7 +19,7 @@
     <t>date_order</t>
   </si>
   <si>
-    <t>partner_code</t>
+    <t>partner_ref</t>
   </si>
   <si>
     <t>partner_id</t>
@@ -46,122 +46,382 @@
     <t>default_code</t>
   </si>
   <si>
-    <t>BROJ0000276</t>
-  </si>
-  <si>
-    <t>MOG-OB1</t>
+    <t>OJX-001281</t>
+  </si>
+  <si>
+    <t>MOG-SCG</t>
   </si>
   <si>
     <t>OB-Inventory</t>
   </si>
   <si>
-    <t>NRSF8-H03-0001-227</t>
-  </si>
-  <si>
-    <t>IMP ปุ่มจับ ทอง ซิงค์ 30x27 มม.(1H00700500P)</t>
-  </si>
-  <si>
-    <t>ผลิต</t>
-  </si>
-  <si>
-    <t>BROJ0000487</t>
-  </si>
-  <si>
-    <t>NFG01-1111-A5-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครงพับผ้าสามเหลี่ยม A5 แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060055</t>
-  </si>
-  <si>
-    <t>NFG01-1111-B-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครงพับผ้า 2 ชั้น B10-B11 แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060044</t>
-  </si>
-  <si>
-    <t>MV-0106005</t>
-  </si>
-  <si>
-    <t>AC0001100</t>
-  </si>
-  <si>
-    <t>AC01  ที่ใส่กระดาษทิชชู  พร้อมที่วางนิตยสาร สีขาว</t>
-  </si>
-  <si>
-    <t>สินค้าชำรุด</t>
-  </si>
-  <si>
-    <t>MV-0106001</t>
-  </si>
-  <si>
-    <t>MV-0106610</t>
-  </si>
-  <si>
-    <t>BGD-000003</t>
-  </si>
-  <si>
-    <t>SF08-804-0015-004</t>
-  </si>
-  <si>
-    <t>ฟองน้ำแบบบาง</t>
-  </si>
-  <si>
-    <t>คลังวัตถุดิบ 2</t>
-  </si>
-  <si>
-    <t>505090001</t>
-  </si>
-  <si>
-    <t>SF08-H03-0000-005</t>
-  </si>
-  <si>
-    <t>C-Line (รับฝ้า) เบอร์ 26</t>
-  </si>
-  <si>
-    <t>418010008</t>
-  </si>
-  <si>
-    <t>SF08-H03-0001-006</t>
-  </si>
-  <si>
-    <t>เกียงโป้วสีสามเหลี่ยม 2-1/2"</t>
-  </si>
-  <si>
-    <t>505010001</t>
-  </si>
-  <si>
-    <t>SF08-H03-0001-019</t>
-  </si>
-  <si>
-    <t>แม็กคู่ 1010</t>
-  </si>
-  <si>
-    <t>501290001</t>
-  </si>
-  <si>
-    <t>MV-0107316</t>
-  </si>
-  <si>
-    <t>SP0029810001</t>
-  </si>
-  <si>
-    <t>SP298/1 เหล็กฉาก ขนาด 36*70 mm.</t>
+    <t>AC0002100</t>
+  </si>
+  <si>
+    <t>AC02  ที่วางสบู่ สีขาว</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>OJ00071548</t>
+  </si>
+  <si>
+    <t>AC0013100</t>
+  </si>
+  <si>
+    <t>AC13 ที่วางสบู่</t>
+  </si>
+  <si>
+    <t>MV-0106060</t>
+  </si>
+  <si>
+    <t>AC0021100</t>
+  </si>
+  <si>
+    <t>AC21 ออก้า ที่ใส่กระดาษทิชชู  พร้อมที่วางนิตยสาร</t>
+  </si>
+  <si>
+    <t>MV-0106139</t>
+  </si>
+  <si>
+    <t>MV-0107280</t>
+  </si>
+  <si>
+    <t>MV-0106262</t>
+  </si>
+  <si>
+    <t>AC0022100</t>
+  </si>
+  <si>
+    <t>AC22 ออก้า ที่วางสบู่</t>
+  </si>
+  <si>
+    <t>OJ00072670</t>
+  </si>
+  <si>
+    <t>AC0051101</t>
+  </si>
+  <si>
+    <t>AC51  โซล่า  ที่ใส่กระดาษทิชชู    ขาว</t>
+  </si>
+  <si>
+    <t>OJ00072287</t>
+  </si>
+  <si>
+    <t>AC0061101</t>
+  </si>
+  <si>
+    <t>AC61  ลูน่า  ที่ใส่กระดาษทิชชู    ขาว</t>
+  </si>
+  <si>
+    <t>MV-0106926</t>
+  </si>
+  <si>
+    <t>ACF000111A</t>
+  </si>
+  <si>
+    <t>ACF02 ที่ใส่สบู่ พร้อมที่วางของ  ขนาด 400x130x24 มม.(วัสดุหินสังเคราะห์)</t>
+  </si>
+  <si>
+    <t>MV-0107045</t>
+  </si>
+  <si>
+    <t>OB2558</t>
+  </si>
+  <si>
+    <t>F036B6C020</t>
+  </si>
+  <si>
+    <t>F36026L เฟอร์นิเจอร์ ขนาด 26 ซม. สีลายไม้เข้ม</t>
+  </si>
+  <si>
+    <t>OJ00069346</t>
+  </si>
+  <si>
+    <t>OJ00071105</t>
+  </si>
+  <si>
+    <t>FU0005WC280</t>
+  </si>
+  <si>
+    <t>FU5055WO2-N LaFur Rivulet ตู้เฟอร์นิเจอร์ กันน้ำ 100% ขนาด 55 ซม. สีขาวงาช้าง</t>
+  </si>
+  <si>
+    <t>FU0025IRL180</t>
+  </si>
+  <si>
+    <t>FU25090U (L) Lafur Rivulet 100% ขนาด 90 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>LFA02011D</t>
+  </si>
+  <si>
+    <t>LFA20060K อ่างล้างหน้าอะครีลิคพร้อมตู้เฟอร์ สีขาว (PP19) ขนาด 60 ซม.</t>
+  </si>
+  <si>
+    <t>DQA0003816</t>
+  </si>
+  <si>
+    <t>MA0343101</t>
+  </si>
+  <si>
+    <t>MA343  อ่างล้างหน้า ชนิดวางบนเคาน์เตอร์  สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00068523</t>
+  </si>
+  <si>
+    <t>MA0343101(W)</t>
+  </si>
+  <si>
+    <t>MA343 (W) อ่างล้างหน้า ชนิดแขวนผนัง  สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00071618</t>
+  </si>
+  <si>
+    <t>MA0362101</t>
+  </si>
+  <si>
+    <t>MA362  อ่างล้างหน้า ชนิดแขวนผนัง สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00069267</t>
+  </si>
+  <si>
+    <t>MA0433101</t>
+  </si>
+  <si>
+    <t>MA433  อ่างล้างหน้า ชนิดฝังบนเคาน์เตอร์  สีขาว</t>
+  </si>
+  <si>
+    <t>MV-0106797</t>
+  </si>
+  <si>
+    <t>MA0512C110</t>
+  </si>
+  <si>
+    <t>MA513 (W) อ่างล้างหน้า ชนิดแขวนผนัง  สีขาว</t>
+  </si>
+  <si>
+    <t>GD-0043269</t>
+  </si>
+  <si>
+    <t>MA372L101</t>
+  </si>
+  <si>
+    <t>MA372-L  อ่างล้างหน้า ชนิดแขวนผนัง หลุมอ่างด้านซ้าย  สีขาว</t>
+  </si>
+  <si>
+    <t>MA372R101</t>
+  </si>
+  <si>
+    <t>MA372-R  อ่างล้างหน้า ชนิดแขวนผนัง หลุมอ่างด้านขวา  สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00073182</t>
+  </si>
+  <si>
+    <t>MAE06DL101</t>
+  </si>
+  <si>
+    <t>MAE06D (L)  อ่างล้างหน้าวัสดุสังเคราะห์ (Co-marble) หลุมอ่างด้านซ้าย ขนาด 90 ซม.</t>
+  </si>
+  <si>
+    <t>MF00091Q7</t>
+  </si>
+  <si>
+    <t>F9052GK-N เฟอร์นิเจอร์ ขนาด 52 ซม. สีลายไม้เข้ม (PP36)+สีขาว (PP19)</t>
+  </si>
+  <si>
+    <t>OJ00073060</t>
+  </si>
+  <si>
+    <t>MO00501210</t>
+  </si>
+  <si>
+    <t>MO50 โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00072836</t>
+  </si>
+  <si>
+    <t>MO00521210</t>
+  </si>
+  <si>
+    <t>MO52 โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00072656</t>
+  </si>
+  <si>
+    <t>MO028S101</t>
+  </si>
+  <si>
+    <t>MO28/S  ฝารองนั่ง รุ่น พลาโน ทั้งชุด  แบบธรรมดา รุ่น MO28</t>
+  </si>
+  <si>
+    <t>OJ00072216</t>
+  </si>
+  <si>
+    <t>MO032S101</t>
+  </si>
+  <si>
+    <t>MO32/S ฝารองนั่ง SLOW  รุ่น MO32 ทั้งชุด</t>
+  </si>
+  <si>
+    <t>OJ00072967</t>
+  </si>
+  <si>
+    <t>MO051E1210</t>
+  </si>
+  <si>
+    <t>MO51 (ECO) โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
+  </si>
+  <si>
+    <t>OJ00071642</t>
+  </si>
+  <si>
+    <t>MO15SS101</t>
+  </si>
+  <si>
+    <t>MO15/SP  ฝารองนั่ง Slow Close รุ่น ไฟลท์ ทั้งชุด รุ่น MO15 MT16N</t>
+  </si>
+  <si>
+    <t>OJ00073258</t>
+  </si>
+  <si>
+    <t>MSW0012103</t>
+  </si>
+  <si>
+    <t>MSW12M#GR ชุดฝักบัวเรนชาวเวอร์แบบเหลี่ยม พร้อมฝักบัวสายอ่อน 3 ฟังก์ชั่น จอแสดงผลอุณหภูมิ และก๊อกอเนกประสงค์ติดผนังพร้อมที่วางของ (Grey shadowed)</t>
+  </si>
+  <si>
+    <t>OJ00072377</t>
+  </si>
+  <si>
+    <t>MT014E101</t>
+  </si>
+  <si>
+    <t>MT14 (Eco)  เอสตีม  โถสุขภัณฑ์สองชิ้น  สีขาว (ฝา Slow Close)</t>
+  </si>
+  <si>
+    <t>OJ00073004</t>
+  </si>
+  <si>
+    <t>MT056E1210</t>
+  </si>
+  <si>
+    <t>MT56 (ECO) โถสุขภัณฑ์สองชิ้น (ฝา Slow Close) สีขาว</t>
+  </si>
+  <si>
+    <t>MV-0107310</t>
+  </si>
+  <si>
+    <t>MT20SS101</t>
+  </si>
+  <si>
+    <t>MT20/SP  ฝารองนั่ง Slow Close  รุ่น บีไนน์  เอ็ลลิกัน ทั้งชุด</t>
+  </si>
+  <si>
+    <t>MV-0107418</t>
+  </si>
+  <si>
+    <t>IBI0001989</t>
+  </si>
+  <si>
+    <t>MV-0107401</t>
+  </si>
+  <si>
+    <t>MT541S101</t>
+  </si>
+  <si>
+    <t>MT54/S1  ฝารองนั่ง Slow Close ทั้งชุด รุ่น MT54  MT55</t>
+  </si>
+  <si>
+    <t>MV-0107086</t>
+  </si>
+  <si>
+    <t>MT631S101</t>
+  </si>
+  <si>
+    <t>MT63/S1  ฝารองนั่ง Slow Close ทั้งชุด รุ่น MT63</t>
+  </si>
+  <si>
+    <t>OJ00072324</t>
+  </si>
+  <si>
+    <t>RS00006110</t>
+  </si>
+  <si>
+    <t>RS06 ชุดสายฉีดชำระ</t>
+  </si>
+  <si>
+    <t>OJ00072766</t>
+  </si>
+  <si>
+    <t>SP00205100</t>
+  </si>
+  <si>
+    <t>SP205 ก๊อกเดี่ยวอ่างล้างหน้า</t>
+  </si>
+  <si>
+    <t>OJ00073023</t>
+  </si>
+  <si>
+    <t>SP0035100</t>
+  </si>
+  <si>
+    <t>SP35 สายฉีดชำระ</t>
+  </si>
+  <si>
+    <t>OJ00072740</t>
+  </si>
+  <si>
+    <t>SPV0016100</t>
+  </si>
+  <si>
+    <t>SPV16 วาล์วเปิด-ปิดน้ำ</t>
+  </si>
+  <si>
+    <t>OJ00073160</t>
+  </si>
+  <si>
+    <t>SWR0006101</t>
+  </si>
+  <si>
+    <t>SWR06C#BL ชุดฝักบัวเรนชาวเวอร์ พร้อมฝักบัว 3 ฟังก์ชั่น แบบเหลี่ยม สีดำ</t>
+  </si>
+  <si>
+    <t>OJ00072720</t>
+  </si>
+  <si>
+    <t>UF00005100</t>
+  </si>
+  <si>
+    <t>UF05 ชุด Flush Valve สำหรับโถปัสสาวะชาย MU01  MU02  MU03  MU04  MU07 (GFV-FV11)</t>
+  </si>
+  <si>
+    <t>MV-0107136</t>
+  </si>
+  <si>
+    <t>WB0001A100</t>
+  </si>
+  <si>
+    <t>WB01 สะดืออ่างล้างหน้าแบบกด (มีรูน้ำล้น) (LS 8870H)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="60" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -173,13 +433,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +463,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -218,36 +489,6 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -260,10 +501,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -305,7 +546,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -318,62 +559,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -397,6 +626,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -413,10 +643,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -593,11 +823,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -606,7 +839,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -620,19 +853,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -871,12 +1104,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1157,7 +1390,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1425,11 +1658,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1444,10 +1675,10 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="2">
@@ -1472,498 +1703,1523 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="48.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="49.65" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6">
-        <v>45514</v>
-      </c>
-      <c r="F2" t="s" s="5">
+      <c r="B2" s="5"/>
+      <c r="C2" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45443</v>
+      </c>
+      <c r="F2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
+        <v>116.387377517483</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="48.05" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45593</v>
+      </c>
+      <c r="F3" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9">
+        <v>152</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="49.65" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45464</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9">
+        <v>204.50925</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="49.65" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45482</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9">
+        <v>204.50926</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="49.65" customHeight="1">
+      <c r="A6" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45693</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="H6" s="9">
+        <v>204.5093</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="32.05" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45512</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>126.03065</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="34.05" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45677</v>
+      </c>
+      <c r="F8" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="34.05" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45636</v>
+      </c>
+      <c r="F9" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="H9" s="9">
+        <v>113.2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45625</v>
+      </c>
+      <c r="F10" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9">
+        <v>583.3460250000001</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="35.65" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45644</v>
+      </c>
+      <c r="F11" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="H11" s="9">
+        <v>583.34604</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45259</v>
+      </c>
+      <c r="F12" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9">
+        <v>928.2923</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45485</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="H13" s="9">
+        <v>978.2923</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45575</v>
+      </c>
+      <c r="F14" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13">
+        <v>924.0295</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12">
+        <v>43466</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s" s="8">
+        <v>44</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1320.03</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44980</v>
+      </c>
+      <c r="F16" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4870</v>
+      </c>
+      <c r="I16" s="13">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E17" s="12">
+        <v>43466</v>
+      </c>
+      <c r="F17" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2737.461217647060</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45579</v>
+      </c>
+      <c r="F18" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1008.3745</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12">
+        <v>45420</v>
+      </c>
+      <c r="F19" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="H19" s="13">
+        <v>980.606836666667</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="I2" s="8">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="K2" s="9">
-        <v>408010007</v>
-      </c>
-    </row>
-    <row r="3" ht="49.65" customHeight="1">
-      <c r="A3" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E3" s="13">
-        <v>45535</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H3" s="14">
-        <v>765</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="B20" s="11"/>
+      <c r="C20" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45595</v>
+      </c>
+      <c r="F20" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="H20" s="13">
+        <v>976.774447619048</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E21" s="12">
+        <v>45482</v>
+      </c>
+      <c r="F21" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1148.153528947370</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E22" s="12">
+        <v>45603</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="H22" s="13">
+        <v>690.101766666667</v>
+      </c>
+      <c r="I22" s="13">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E23" s="12">
+        <v>45674</v>
+      </c>
+      <c r="F23" t="s" s="8">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="H23" s="13">
+        <v>340</v>
+      </c>
+      <c r="I23" s="13">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44286</v>
+      </c>
+      <c r="F24" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s" s="8">
+        <v>68</v>
+      </c>
+      <c r="H24" s="13">
+        <v>340</v>
+      </c>
+      <c r="I24" s="13">
         <v>2</v>
       </c>
-      <c r="J3" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="48.05" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13">
-        <v>45535</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="H4" s="14">
-        <v>765</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="J24" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E25" s="12">
+        <v>45713</v>
+      </c>
+      <c r="F25" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2374.0433875</v>
+      </c>
+      <c r="I25" s="13">
         <v>2</v>
       </c>
-      <c r="J4" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="49.65" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13">
-        <v>45323</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="H5" s="14">
-        <v>217.35</v>
-      </c>
-      <c r="I5" s="15">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="49.65" customHeight="1">
-      <c r="A6" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E6" s="13">
-        <v>45441</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="H6" s="14">
-        <v>233.6</v>
-      </c>
-      <c r="I6" s="15">
+      <c r="J25" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E26" s="12">
+        <v>43466</v>
+      </c>
+      <c r="F26" t="s" s="8">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="H26" s="13">
+        <v>666.194266666667</v>
+      </c>
+      <c r="I26" s="13">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E27" s="12">
+        <v>45702</v>
+      </c>
+      <c r="F27" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="H27" s="13">
+        <v>3181.535927083330</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E28" s="12">
+        <v>45686</v>
+      </c>
+      <c r="F28" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2469.3242</v>
+      </c>
+      <c r="I28" s="13">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E29" s="12">
+        <v>45674</v>
+      </c>
+      <c r="F29" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="H29" s="13">
+        <v>497.80544</v>
+      </c>
+      <c r="I29" s="13">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E30" s="12">
+        <v>45633</v>
+      </c>
+      <c r="F30" t="s" s="8">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="H30" s="13">
+        <v>285.004406666667</v>
+      </c>
+      <c r="I30" s="13">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="14">
+        <v>86</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E31" s="12">
+        <v>45694</v>
+      </c>
+      <c r="F31" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="H31" s="13">
+        <v>3002.0874375</v>
+      </c>
+      <c r="I31" s="13">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E32" s="12">
+        <v>45595</v>
+      </c>
+      <c r="F32" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="H32" s="13">
+        <v>335.325309523810</v>
+      </c>
+      <c r="I32" s="13">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E33" s="12">
+        <v>45714</v>
+      </c>
+      <c r="F33" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="H33" s="13">
+        <v>3297.044869230770</v>
+      </c>
+      <c r="I33" s="13">
         <v>2</v>
       </c>
-      <c r="J6" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="49.65" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13">
-        <v>45573</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="H7" s="14">
-        <v>258.0206</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="J33" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E34" s="12">
+        <v>45642</v>
+      </c>
+      <c r="F34" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s" s="8">
+        <v>97</v>
+      </c>
+      <c r="H34" s="13">
+        <v>2710.7927</v>
+      </c>
+      <c r="I34" s="13">
         <v>1</v>
       </c>
-      <c r="J7" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E8" s="13">
-        <v>45471</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="H8" s="14">
-        <v>5</v>
-      </c>
-      <c r="I8" s="15">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="34.05" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E9" s="13">
-        <v>45471</v>
-      </c>
-      <c r="F9" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="H9" s="14">
-        <v>21.0000625</v>
-      </c>
-      <c r="I9" s="15">
-        <v>160</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" ht="34.05" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E10" s="13">
-        <v>45471</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="H10" s="14">
-        <v>60</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="J34" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="14">
+        <v>98</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12">
+        <v>45698</v>
+      </c>
+      <c r="F35" t="s" s="8">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="H35" s="13">
+        <v>2151.087014285710</v>
+      </c>
+      <c r="I35" s="13">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E36" s="12">
+        <v>45699</v>
+      </c>
+      <c r="F36" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="H36" s="13">
+        <v>361.98455</v>
+      </c>
+      <c r="I36" s="13">
         <v>6</v>
       </c>
-      <c r="J10" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K10" t="s" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13">
-        <v>45471</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H11" s="14">
-        <v>100</v>
-      </c>
-      <c r="I11" s="15">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" ht="35.65" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="E12" s="13">
-        <v>45699</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="H12" s="14">
-        <v>6.25860495283019</v>
-      </c>
-      <c r="I12" s="15">
-        <v>2120</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K12" t="s" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="J36" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="14">
+        <v>104</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E37" s="12">
+        <v>45713</v>
+      </c>
+      <c r="F37" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="H37" s="13">
+        <v>381.5414</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="14">
+        <v>105</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E38" s="12">
+        <v>45716</v>
+      </c>
+      <c r="F38" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="H38" s="13">
+        <v>480.2354</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="14">
+        <v>106</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E39" s="12">
+        <v>45713</v>
+      </c>
+      <c r="F39" t="s" s="8">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="H39" s="13">
+        <v>375.5747</v>
+      </c>
+      <c r="I39" s="13">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="14">
+        <v>109</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E40" s="12">
+        <v>45651</v>
+      </c>
+      <c r="F40" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="H40" s="13">
+        <v>250</v>
+      </c>
+      <c r="I40" s="13">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E41" s="12">
+        <v>45638</v>
+      </c>
+      <c r="F41" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="G41" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="H41" s="13">
+        <v>103.514018518519</v>
+      </c>
+      <c r="I41" s="13">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s" s="8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="14">
+        <v>115</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E42" s="12">
+        <v>45681</v>
+      </c>
+      <c r="F42" t="s" s="8">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="H42" s="13">
+        <v>272.158421511628</v>
+      </c>
+      <c r="I42" s="13">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" t="s" s="14">
+        <v>118</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E43" s="12">
+        <v>45701</v>
+      </c>
+      <c r="F43" t="s" s="8">
+        <v>119</v>
+      </c>
+      <c r="G43" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="H43" s="13">
+        <v>236.750182051282</v>
+      </c>
+      <c r="I43" s="13">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" t="s" s="14">
+        <v>121</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E44" s="12">
+        <v>45680</v>
+      </c>
+      <c r="F44" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="G44" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="H44" s="13">
+        <v>71.81285</v>
+      </c>
+      <c r="I44" s="13">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" t="s" s="14">
+        <v>124</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E45" s="12">
+        <v>45710</v>
+      </c>
+      <c r="F45" t="s" s="8">
+        <v>125</v>
+      </c>
+      <c r="G45" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="H45" s="13">
+        <v>2063.813633333330</v>
+      </c>
+      <c r="I45" s="13">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" t="s" s="14">
+        <v>127</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E46" s="12">
+        <v>45679</v>
+      </c>
+      <c r="F46" t="s" s="8">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="H46" s="13">
+        <v>315.145779069767</v>
+      </c>
+      <c r="I46" s="13">
+        <v>6</v>
+      </c>
+      <c r="J46" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" t="s" s="14">
+        <v>130</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="E47" s="12">
+        <v>45670</v>
+      </c>
+      <c r="F47" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="H47" s="13">
+        <v>115.787659554140</v>
+      </c>
+      <c r="I47" s="13">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s" s="8">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/Data_file/import_OB.xlsx
+++ b/Data_file/import_OB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -46,370 +46,187 @@
     <t>default_code</t>
   </si>
   <si>
-    <t>OJX-001281</t>
-  </si>
-  <si>
-    <t>MOG-SCG</t>
-  </si>
-  <si>
-    <t>OB-Inventory</t>
-  </si>
-  <si>
-    <t>AC0002100</t>
-  </si>
-  <si>
-    <t>AC02  ที่วางสบู่ สีขาว</t>
-  </si>
-  <si>
-    <t>SCG</t>
-  </si>
-  <si>
-    <t>OJ00071548</t>
-  </si>
-  <si>
-    <t>AC0013100</t>
-  </si>
-  <si>
-    <t>AC13 ที่วางสบู่</t>
-  </si>
-  <si>
-    <t>MV-0106060</t>
-  </si>
-  <si>
-    <t>AC0021100</t>
-  </si>
-  <si>
-    <t>AC21 ออก้า ที่ใส่กระดาษทิชชู  พร้อมที่วางนิตยสาร</t>
-  </si>
-  <si>
-    <t>MV-0106139</t>
-  </si>
-  <si>
-    <t>MV-0107280</t>
-  </si>
-  <si>
-    <t>MV-0106262</t>
-  </si>
-  <si>
-    <t>AC0022100</t>
-  </si>
-  <si>
-    <t>AC22 ออก้า ที่วางสบู่</t>
-  </si>
-  <si>
-    <t>OJ00072670</t>
-  </si>
-  <si>
-    <t>AC0051101</t>
-  </si>
-  <si>
-    <t>AC51  โซล่า  ที่ใส่กระดาษทิชชู    ขาว</t>
-  </si>
-  <si>
-    <t>OJ00072287</t>
-  </si>
-  <si>
-    <t>AC0061101</t>
-  </si>
-  <si>
-    <t>AC61  ลูน่า  ที่ใส่กระดาษทิชชู    ขาว</t>
-  </si>
-  <si>
-    <t>MV-0106926</t>
-  </si>
-  <si>
-    <t>ACF000111A</t>
-  </si>
-  <si>
-    <t>ACF02 ที่ใส่สบู่ พร้อมที่วางของ  ขนาด 400x130x24 มม.(วัสดุหินสังเคราะห์)</t>
-  </si>
-  <si>
-    <t>MV-0107045</t>
-  </si>
-  <si>
-    <t>OB2558</t>
-  </si>
-  <si>
-    <t>F036B6C020</t>
-  </si>
-  <si>
-    <t>F36026L เฟอร์นิเจอร์ ขนาด 26 ซม. สีลายไม้เข้ม</t>
-  </si>
-  <si>
-    <t>OJ00069346</t>
-  </si>
-  <si>
-    <t>OJ00071105</t>
-  </si>
-  <si>
-    <t>FU0005WC280</t>
-  </si>
-  <si>
-    <t>FU5055WO2-N LaFur Rivulet ตู้เฟอร์นิเจอร์ กันน้ำ 100% ขนาด 55 ซม. สีขาวงาช้าง</t>
-  </si>
-  <si>
-    <t>FU0025IRL180</t>
-  </si>
-  <si>
-    <t>FU25090U (L) Lafur Rivulet 100% ขนาด 90 ซม. สีลายไม้อ่อน</t>
-  </si>
-  <si>
-    <t>LFA02011D</t>
-  </si>
-  <si>
-    <t>LFA20060K อ่างล้างหน้าอะครีลิคพร้อมตู้เฟอร์ สีขาว (PP19) ขนาด 60 ซม.</t>
-  </si>
-  <si>
-    <t>DQA0003816</t>
-  </si>
-  <si>
-    <t>MA0343101</t>
-  </si>
-  <si>
-    <t>MA343  อ่างล้างหน้า ชนิดวางบนเคาน์เตอร์  สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00068523</t>
-  </si>
-  <si>
-    <t>MA0343101(W)</t>
-  </si>
-  <si>
-    <t>MA343 (W) อ่างล้างหน้า ชนิดแขวนผนัง  สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00071618</t>
-  </si>
-  <si>
-    <t>MA0362101</t>
-  </si>
-  <si>
-    <t>MA362  อ่างล้างหน้า ชนิดแขวนผนัง สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00069267</t>
-  </si>
-  <si>
-    <t>MA0433101</t>
-  </si>
-  <si>
-    <t>MA433  อ่างล้างหน้า ชนิดฝังบนเคาน์เตอร์  สีขาว</t>
-  </si>
-  <si>
-    <t>MV-0106797</t>
-  </si>
-  <si>
-    <t>MA0512C110</t>
-  </si>
-  <si>
-    <t>MA513 (W) อ่างล้างหน้า ชนิดแขวนผนัง  สีขาว</t>
-  </si>
-  <si>
-    <t>GD-0043269</t>
-  </si>
-  <si>
-    <t>MA372L101</t>
-  </si>
-  <si>
-    <t>MA372-L  อ่างล้างหน้า ชนิดแขวนผนัง หลุมอ่างด้านซ้าย  สีขาว</t>
-  </si>
-  <si>
-    <t>MA372R101</t>
-  </si>
-  <si>
-    <t>MA372-R  อ่างล้างหน้า ชนิดแขวนผนัง หลุมอ่างด้านขวา  สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00073182</t>
-  </si>
-  <si>
-    <t>MAE06DL101</t>
-  </si>
-  <si>
-    <t>MAE06D (L)  อ่างล้างหน้าวัสดุสังเคราะห์ (Co-marble) หลุมอ่างด้านซ้าย ขนาด 90 ซม.</t>
-  </si>
-  <si>
-    <t>MF00091Q7</t>
-  </si>
-  <si>
-    <t>F9052GK-N เฟอร์นิเจอร์ ขนาด 52 ซม. สีลายไม้เข้ม (PP36)+สีขาว (PP19)</t>
-  </si>
-  <si>
-    <t>OJ00073060</t>
-  </si>
-  <si>
-    <t>MO00501210</t>
-  </si>
-  <si>
-    <t>MO50 โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00072836</t>
-  </si>
-  <si>
-    <t>MO00521210</t>
-  </si>
-  <si>
-    <t>MO52 โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00072656</t>
-  </si>
-  <si>
-    <t>MO028S101</t>
-  </si>
-  <si>
-    <t>MO28/S  ฝารองนั่ง รุ่น พลาโน ทั้งชุด  แบบธรรมดา รุ่น MO28</t>
-  </si>
-  <si>
-    <t>OJ00072216</t>
-  </si>
-  <si>
-    <t>MO032S101</t>
-  </si>
-  <si>
-    <t>MO32/S ฝารองนั่ง SLOW  รุ่น MO32 ทั้งชุด</t>
-  </si>
-  <si>
-    <t>OJ00072967</t>
-  </si>
-  <si>
-    <t>MO051E1210</t>
-  </si>
-  <si>
-    <t>MO51 (ECO) โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
-  </si>
-  <si>
-    <t>OJ00071642</t>
-  </si>
-  <si>
-    <t>MO15SS101</t>
-  </si>
-  <si>
-    <t>MO15/SP  ฝารองนั่ง Slow Close รุ่น ไฟลท์ ทั้งชุด รุ่น MO15 MT16N</t>
-  </si>
-  <si>
-    <t>OJ00073258</t>
-  </si>
-  <si>
-    <t>MSW0012103</t>
-  </si>
-  <si>
-    <t>MSW12M#GR ชุดฝักบัวเรนชาวเวอร์แบบเหลี่ยม พร้อมฝักบัวสายอ่อน 3 ฟังก์ชั่น จอแสดงผลอุณหภูมิ และก๊อกอเนกประสงค์ติดผนังพร้อมที่วางของ (Grey shadowed)</t>
-  </si>
-  <si>
-    <t>OJ00072377</t>
-  </si>
-  <si>
-    <t>MT014E101</t>
-  </si>
-  <si>
-    <t>MT14 (Eco)  เอสตีม  โถสุขภัณฑ์สองชิ้น  สีขาว (ฝา Slow Close)</t>
-  </si>
-  <si>
-    <t>OJ00073004</t>
-  </si>
-  <si>
-    <t>MT056E1210</t>
-  </si>
-  <si>
-    <t>MT56 (ECO) โถสุขภัณฑ์สองชิ้น (ฝา Slow Close) สีขาว</t>
-  </si>
-  <si>
-    <t>MV-0107310</t>
-  </si>
-  <si>
-    <t>MT20SS101</t>
-  </si>
-  <si>
-    <t>MT20/SP  ฝารองนั่ง Slow Close  รุ่น บีไนน์  เอ็ลลิกัน ทั้งชุด</t>
-  </si>
-  <si>
-    <t>MV-0107418</t>
-  </si>
-  <si>
-    <t>IBI0001989</t>
-  </si>
-  <si>
-    <t>MV-0107401</t>
-  </si>
-  <si>
-    <t>MT541S101</t>
-  </si>
-  <si>
-    <t>MT54/S1  ฝารองนั่ง Slow Close ทั้งชุด รุ่น MT54  MT55</t>
-  </si>
-  <si>
-    <t>MV-0107086</t>
-  </si>
-  <si>
-    <t>MT631S101</t>
-  </si>
-  <si>
-    <t>MT63/S1  ฝารองนั่ง Slow Close ทั้งชุด รุ่น MT63</t>
-  </si>
-  <si>
-    <t>OJ00072324</t>
-  </si>
-  <si>
-    <t>RS00006110</t>
-  </si>
-  <si>
-    <t>RS06 ชุดสายฉีดชำระ</t>
-  </si>
-  <si>
-    <t>OJ00072766</t>
-  </si>
-  <si>
-    <t>SP00205100</t>
-  </si>
-  <si>
-    <t>SP205 ก๊อกเดี่ยวอ่างล้างหน้า</t>
-  </si>
-  <si>
-    <t>OJ00073023</t>
-  </si>
-  <si>
-    <t>SP0035100</t>
-  </si>
-  <si>
-    <t>SP35 สายฉีดชำระ</t>
-  </si>
-  <si>
-    <t>OJ00072740</t>
-  </si>
-  <si>
-    <t>SPV0016100</t>
-  </si>
-  <si>
-    <t>SPV16 วาล์วเปิด-ปิดน้ำ</t>
-  </si>
-  <si>
-    <t>OJ00073160</t>
-  </si>
-  <si>
-    <t>SWR0006101</t>
-  </si>
-  <si>
-    <t>SWR06C#BL ชุดฝักบัวเรนชาวเวอร์ พร้อมฝักบัว 3 ฟังก์ชั่น แบบเหลี่ยม สีดำ</t>
-  </si>
-  <si>
-    <t>OJ00072720</t>
-  </si>
-  <si>
-    <t>UF00005100</t>
-  </si>
-  <si>
-    <t>UF05 ชุด Flush Valve สำหรับโถปัสสาวะชาย MU01  MU02  MU03  MU04  MU07 (GFV-FV11)</t>
-  </si>
-  <si>
-    <t>MV-0107136</t>
-  </si>
-  <si>
-    <t>WB0001A100</t>
-  </si>
-  <si>
-    <t>WB01 สะดืออ่างล้างหน้าแบบกด (มีรูน้ำล้น) (LS 8870H)</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>OB-ผลิต</t>
+  </si>
+  <si>
+    <t>MOG-ผลิต</t>
+  </si>
+  <si>
+    <t>OB-INVENTORY</t>
+  </si>
+  <si>
+    <t>NRSF8-H03-0001-227</t>
+  </si>
+  <si>
+    <t>IMP ปุ่มจับ ทอง ซิงค์ 30x27 มม.(1H00700500P)</t>
+  </si>
+  <si>
+    <t>ผลิต</t>
+  </si>
+  <si>
+    <t>408010007</t>
+  </si>
+  <si>
+    <t>BROJ0000276</t>
+  </si>
+  <si>
+    <t>NFG01-1111-A5-1ACH-WH-L</t>
+  </si>
+  <si>
+    <t>โครงพับผ้าสามเหลี่ยม A5 แบบบ้าน 1A</t>
+  </si>
+  <si>
+    <t>201060055</t>
+  </si>
+  <si>
+    <t>BROJ0000487</t>
+  </si>
+  <si>
+    <t>NFG01-1111-B-1ACH-WH-L</t>
+  </si>
+  <si>
+    <t>โครงพับผ้า 2 ชั้น B10-B11 แบบบ้าน 1A</t>
+  </si>
+  <si>
+    <t>201060044</t>
+  </si>
+  <si>
+    <t>NFG01-A0-1ACH-WH-L</t>
+  </si>
+  <si>
+    <t>โครง A แบบบ้าน 1A</t>
+  </si>
+  <si>
+    <t>201060002</t>
+  </si>
+  <si>
+    <t>NFG01-B0-1ACH-WH-L</t>
+  </si>
+  <si>
+    <t>โครง B แบบบ้าน 1A</t>
+  </si>
+  <si>
+    <t>201060018</t>
+  </si>
+  <si>
+    <t>NFG01-C0-1ACH-WH-L</t>
+  </si>
+  <si>
+    <t>โครง C แบบบ้าน 1A</t>
+  </si>
+  <si>
+    <t>201060034</t>
+  </si>
+  <si>
+    <t>FG01-264-01WHITE-L</t>
+  </si>
+  <si>
+    <t>ซัพพอร์ตมาตรฐาน ขาว-L</t>
+  </si>
+  <si>
+    <t>203030005</t>
+  </si>
+  <si>
+    <t>FG01-264-01WHITE-R</t>
+  </si>
+  <si>
+    <t>ซัพพอร์ตมาตรฐาน ขาว R</t>
+  </si>
+  <si>
+    <t>203030004</t>
+  </si>
+  <si>
+    <t>RSF8-801-P001-002</t>
+  </si>
+  <si>
+    <t>พุกตะกั่ว 3/8(500/กล่อง)</t>
+  </si>
+  <si>
+    <t>409230008</t>
+  </si>
+  <si>
+    <t>RSF8-801-N003-003/U</t>
+  </si>
+  <si>
+    <t>น้อตตัวผู้ 3/8 เกลียวยาว 2-1/2"(500/กล่อง)</t>
+  </si>
+  <si>
+    <t>409170006</t>
+  </si>
+  <si>
+    <t>RSF8-801-H001-002</t>
+  </si>
+  <si>
+    <t>แหวนสปริงชุบรุ้ง M10(1500/กล่อง)</t>
+  </si>
+  <si>
+    <t>409070002</t>
+  </si>
+  <si>
+    <t>RSF8-801-H002-002</t>
+  </si>
+  <si>
+    <t>แหวนอีแปะ 3/8" ดำ (500/กล่อง)/แหวนอีแปะ 3/8" ไม่ชุป</t>
+  </si>
+  <si>
+    <t>409080006</t>
+  </si>
+  <si>
+    <t>RSF8-801-N009-003</t>
+  </si>
+  <si>
+    <t>Welgreat-Sleeve Anchor M10x100 mm.</t>
+  </si>
+  <si>
+    <t>409170001</t>
+  </si>
+  <si>
+    <t>BROJ0001823</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-038</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN ขนาด 32x350x250 mm. ข้าง R สีขาว</t>
+  </si>
+  <si>
+    <t>301010011</t>
+  </si>
+  <si>
+    <t>BROJ0000613</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-039</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN ขนาด 32x350x250 mm. ข้าง L สีขาว</t>
+  </si>
+  <si>
+    <t>301010010</t>
+  </si>
+  <si>
+    <t>NMS02-220-0060x0060-1.5</t>
+  </si>
+  <si>
+    <t>เหล็กกล่อง 60x60x1.4 mm./เหล็กกล่อง 60x60x1.5 mm.(16.8กก.)</t>
+  </si>
+  <si>
+    <t>401010018</t>
+  </si>
+  <si>
+    <t>BROJ0001044</t>
+  </si>
+  <si>
+    <t>NMS02-220-0038x0019x1.2ST</t>
+  </si>
+  <si>
+    <t>เหล็กกล่อง 38x19x1.2 mm.(บันได)(5.8)</t>
+  </si>
+  <si>
+    <t>401010011</t>
   </si>
 </sst>
 </file>
@@ -470,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -553,13 +370,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -593,6 +485,18 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,6 +507,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,6 +534,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1658,14 +1566,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="12" width="16.3516" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1702,1524 +1610,1137 @@
       <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" ht="49.65" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" t="s" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7">
-        <v>45443</v>
+        <v>45514</v>
       </c>
       <c r="F2" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="9">
-        <v>116.387377517483</v>
+        <v>55</v>
       </c>
       <c r="I2" s="10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s" s="8">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="L2" t="s" s="8">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="48.05" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7">
-        <v>45593</v>
+        <v>45535</v>
       </c>
       <c r="F3" t="s" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="9">
-        <v>152</v>
+        <v>765</v>
       </c>
       <c r="I3" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s" s="8">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="L3" t="s" s="8">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="49.65" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
-        <v>45464</v>
+        <v>45535</v>
       </c>
       <c r="F4" t="s" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" s="9">
-        <v>204.50925</v>
+        <v>765</v>
       </c>
       <c r="I4" s="10">
         <v>2</v>
       </c>
       <c r="J4" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s" s="8">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="L4" t="s" s="8">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="49.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7">
-        <v>45482</v>
+        <v>45535</v>
       </c>
       <c r="F5" t="s" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H5" s="9">
-        <v>204.50926</v>
+        <v>1530</v>
       </c>
       <c r="I5" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="K5" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s" s="8">
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="49.65" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7">
-        <v>45693</v>
+        <v>45535</v>
       </c>
       <c r="F6" t="s" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s" s="8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H6" s="9">
-        <v>204.5093</v>
+        <v>1530</v>
       </c>
       <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s" s="8">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="J6" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>45512</v>
+        <v>45535</v>
       </c>
       <c r="F7" t="s" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9">
-        <v>126.03065</v>
+        <v>1530</v>
       </c>
       <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s" s="8">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="J7" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="34.05" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7">
-        <v>45677</v>
+        <v>45535</v>
       </c>
       <c r="F8" t="s" s="8">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8" s="9">
-        <v>112.5</v>
+        <v>33.8333333333333</v>
       </c>
       <c r="I8" s="10">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s" s="8">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="J8" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="34.05" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
-        <v>45636</v>
+        <v>45535</v>
       </c>
       <c r="F9" t="s" s="8">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H9" s="9">
-        <v>113.2</v>
+        <v>33.8333333333333</v>
       </c>
       <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s" s="8">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="J9" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7">
-        <v>45625</v>
+        <v>45535</v>
       </c>
       <c r="F10" t="s" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H10" s="9">
-        <v>583.3460250000001</v>
+        <v>15.5</v>
       </c>
       <c r="I10" s="10">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s" s="8">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="J10" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="35.65" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7">
-        <v>45644</v>
+        <v>45535</v>
       </c>
       <c r="F11" t="s" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="8">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H11" s="9">
-        <v>583.34604</v>
+        <v>3</v>
       </c>
       <c r="I11" s="10">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s" s="8">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="J11" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s" s="13">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45535</v>
+      </c>
+      <c r="F12" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I12" s="10">
         <v>12</v>
       </c>
-      <c r="D12" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45259</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="H12" s="9">
-        <v>928.2923</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s" s="8">
-        <v>39</v>
+      <c r="J12" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="7">
-        <v>45485</v>
+        <v>45535</v>
       </c>
       <c r="F13" t="s" s="8">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="8">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H13" s="9">
-        <v>978.2923</v>
+        <v>0.652777777777778</v>
       </c>
       <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s" s="8">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="J13" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s" s="13">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="B14" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12">
-        <v>45575</v>
+        <v>14</v>
+      </c>
+      <c r="E14" s="16">
+        <v>45535</v>
       </c>
       <c r="F14" t="s" s="8">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="H14" s="13">
-        <v>924.0295</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s" s="8">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="H14" s="17">
+        <v>8</v>
+      </c>
+      <c r="I14" s="17">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B15" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E15" s="12">
-        <v>43466</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="16">
+        <v>45644</v>
       </c>
       <c r="F15" t="s" s="8">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="H15" s="13">
-        <v>1320.03</v>
-      </c>
-      <c r="I15" s="13">
+        <v>28</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1522</v>
+      </c>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
-      <c r="J15" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s" s="8">
-        <v>43</v>
+      <c r="J15" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s" s="14">
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12">
-        <v>44980</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="16">
+        <v>45644</v>
       </c>
       <c r="F16" t="s" s="8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="H16" s="13">
-        <v>4870</v>
-      </c>
-      <c r="I16" s="13">
-        <v>2</v>
-      </c>
-      <c r="J16" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s" s="8">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1522</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s" s="14">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="B17" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E17" s="12">
-        <v>43466</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="16">
+        <v>45644</v>
       </c>
       <c r="F17" t="s" s="8">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="H17" s="13">
-        <v>2737.461217647060</v>
-      </c>
-      <c r="I17" s="13">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s" s="8">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1522</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s" s="14">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B18" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="15"/>
       <c r="C18" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12">
-        <v>45579</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="16">
+        <v>45644</v>
       </c>
       <c r="F18" t="s" s="8">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1008.3745</v>
-      </c>
-      <c r="I18" s="13">
+        <v>25</v>
+      </c>
+      <c r="H18" s="17">
+        <v>761</v>
+      </c>
+      <c r="I18" s="17">
         <v>1</v>
       </c>
-      <c r="J18" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K18" t="s" s="8">
-        <v>50</v>
+      <c r="J18" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s" s="14">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12">
-        <v>45420</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="16">
+        <v>45644</v>
       </c>
       <c r="F19" t="s" s="8">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="H19" s="13">
-        <v>980.606836666667</v>
-      </c>
-      <c r="I19" s="13">
+        <v>21</v>
+      </c>
+      <c r="H19" s="17">
+        <v>761</v>
+      </c>
+      <c r="I19" s="17">
         <v>1</v>
       </c>
-      <c r="J19" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s" s="8">
-        <v>53</v>
+      <c r="J19" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s" s="14">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="B20" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="15"/>
       <c r="C20" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E20" s="12">
-        <v>45595</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="16">
+        <v>45548</v>
       </c>
       <c r="F20" t="s" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="H20" s="13">
-        <v>976.774447619048</v>
-      </c>
-      <c r="I20" s="13">
+        <v>59</v>
+      </c>
+      <c r="H20" s="17">
+        <v>41</v>
+      </c>
+      <c r="I20" s="17">
         <v>1</v>
       </c>
-      <c r="J20" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K20" t="s" s="8">
-        <v>56</v>
+      <c r="J20" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s" s="14">
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="B21" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="15"/>
       <c r="C21" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E21" s="16">
+        <v>45548</v>
+      </c>
+      <c r="F21" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="H21" s="17">
+        <v>41</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D21" t="s" s="8">
+      <c r="B22" s="15"/>
+      <c r="C22" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="E21" s="12">
-        <v>45482</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="G21" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1148.153528947370</v>
-      </c>
-      <c r="I21" s="13">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s" s="8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="14">
-        <v>61</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" t="s" s="8">
+      <c r="D22" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="E22" s="16">
+        <v>45586</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="H22" s="17">
+        <v>570</v>
+      </c>
+      <c r="I22" s="17">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s" s="13">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D22" t="s" s="8">
+      <c r="B23" s="15"/>
+      <c r="C23" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="E22" s="12">
-        <v>45603</v>
-      </c>
-      <c r="F22" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="H22" s="13">
-        <v>690.101766666667</v>
-      </c>
-      <c r="I22" s="13">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s" s="8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="14">
-        <v>64</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" t="s" s="8">
-        <v>12</v>
-      </c>
       <c r="D23" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E23" s="12">
-        <v>45674</v>
+        <v>14</v>
+      </c>
+      <c r="E23" s="16">
+        <v>45586</v>
       </c>
       <c r="F23" t="s" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="H23" s="13">
-        <v>340</v>
-      </c>
-      <c r="I23" s="13">
-        <v>4</v>
-      </c>
-      <c r="J23" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K23" t="s" s="8">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="H23" s="17">
+        <v>180</v>
+      </c>
+      <c r="I23" s="17">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s" s="14">
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E24" s="12">
-        <v>44286</v>
-      </c>
-      <c r="F24" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="H24" s="13">
-        <v>340</v>
-      </c>
-      <c r="I24" s="13">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K24" t="s" s="8">
-        <v>67</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="14">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E25" s="12">
-        <v>45713</v>
-      </c>
-      <c r="F25" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="G25" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="H25" s="13">
-        <v>2374.0433875</v>
-      </c>
-      <c r="I25" s="13">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K25" t="s" s="8">
-        <v>70</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E26" s="12">
-        <v>43466</v>
-      </c>
-      <c r="F26" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="H26" s="13">
-        <v>666.194266666667</v>
-      </c>
-      <c r="I26" s="13">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s" s="8">
-        <v>72</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="14">
-        <v>74</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E27" s="12">
-        <v>45702</v>
-      </c>
-      <c r="F27" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="G27" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="H27" s="13">
-        <v>3181.535927083330</v>
-      </c>
-      <c r="I27" s="13">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s" s="8">
-        <v>75</v>
-      </c>
+      <c r="A27" s="18"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E28" s="12">
-        <v>45686</v>
-      </c>
-      <c r="F28" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="G28" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="H28" s="13">
-        <v>2469.3242</v>
-      </c>
-      <c r="I28" s="13">
-        <v>5</v>
-      </c>
-      <c r="J28" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s" s="8">
-        <v>78</v>
-      </c>
+      <c r="A28" s="18"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="14">
-        <v>80</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E29" s="12">
-        <v>45674</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="G29" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="H29" s="13">
-        <v>497.80544</v>
-      </c>
-      <c r="I29" s="13">
-        <v>10</v>
-      </c>
-      <c r="J29" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K29" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A29" s="18"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="14">
-        <v>83</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E30" s="12">
-        <v>45633</v>
-      </c>
-      <c r="F30" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="G30" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="H30" s="13">
-        <v>285.004406666667</v>
-      </c>
-      <c r="I30" s="13">
-        <v>5</v>
-      </c>
-      <c r="J30" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s" s="8">
-        <v>84</v>
-      </c>
+      <c r="A30" s="18"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="14">
-        <v>86</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E31" s="12">
-        <v>45694</v>
-      </c>
-      <c r="F31" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="G31" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="H31" s="13">
-        <v>3002.0874375</v>
-      </c>
-      <c r="I31" s="13">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s" s="8">
-        <v>87</v>
-      </c>
+      <c r="A31" s="18"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E32" s="12">
-        <v>45595</v>
-      </c>
-      <c r="F32" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="G32" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="H32" s="13">
-        <v>335.325309523810</v>
-      </c>
-      <c r="I32" s="13">
-        <v>4</v>
-      </c>
-      <c r="J32" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s" s="8">
-        <v>90</v>
-      </c>
+      <c r="A32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="14">
-        <v>92</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E33" s="12">
-        <v>45714</v>
-      </c>
-      <c r="F33" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="G33" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="H33" s="13">
-        <v>3297.044869230770</v>
-      </c>
-      <c r="I33" s="13">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K33" t="s" s="8">
-        <v>93</v>
-      </c>
+      <c r="A33" s="18"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="14">
-        <v>95</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E34" s="12">
-        <v>45642</v>
-      </c>
-      <c r="F34" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="H34" s="13">
-        <v>2710.7927</v>
-      </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K34" t="s" s="8">
-        <v>96</v>
-      </c>
+      <c r="A34" s="18"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="14">
-        <v>98</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E35" s="12">
-        <v>45698</v>
-      </c>
-      <c r="F35" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="G35" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="H35" s="13">
-        <v>2151.087014285710</v>
-      </c>
-      <c r="I35" s="13">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s" s="8">
-        <v>99</v>
-      </c>
+      <c r="A35" s="18"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="14">
-        <v>101</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E36" s="12">
-        <v>45699</v>
-      </c>
-      <c r="F36" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="G36" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="H36" s="13">
-        <v>361.98455</v>
-      </c>
-      <c r="I36" s="13">
-        <v>6</v>
-      </c>
-      <c r="J36" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K36" t="s" s="8">
-        <v>102</v>
-      </c>
+      <c r="A36" s="18"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="14">
-        <v>104</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E37" s="12">
-        <v>45713</v>
-      </c>
-      <c r="F37" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="G37" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="H37" s="13">
-        <v>381.5414</v>
-      </c>
-      <c r="I37" s="13">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K37" t="s" s="8">
-        <v>102</v>
-      </c>
+      <c r="A37" s="18"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="14">
-        <v>105</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E38" s="12">
-        <v>45716</v>
-      </c>
-      <c r="F38" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="G38" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="H38" s="13">
-        <v>480.2354</v>
-      </c>
-      <c r="I38" s="13">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s" s="8">
-        <v>102</v>
-      </c>
+      <c r="A38" s="18"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="14">
-        <v>106</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E39" s="12">
-        <v>45713</v>
-      </c>
-      <c r="F39" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="G39" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="H39" s="13">
-        <v>375.5747</v>
-      </c>
-      <c r="I39" s="13">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K39" t="s" s="8">
-        <v>107</v>
-      </c>
+      <c r="A39" s="18"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="14">
-        <v>109</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E40" s="12">
-        <v>45651</v>
-      </c>
-      <c r="F40" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="G40" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="H40" s="13">
-        <v>250</v>
-      </c>
-      <c r="I40" s="13">
-        <v>3</v>
-      </c>
-      <c r="J40" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K40" t="s" s="8">
-        <v>110</v>
-      </c>
+      <c r="A40" s="18"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="14">
-        <v>112</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E41" s="12">
-        <v>45638</v>
-      </c>
-      <c r="F41" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="G41" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="H41" s="13">
-        <v>103.514018518519</v>
-      </c>
-      <c r="I41" s="13">
-        <v>4</v>
-      </c>
-      <c r="J41" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K41" t="s" s="8">
-        <v>113</v>
-      </c>
+      <c r="A41" s="18"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="14">
-        <v>115</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E42" s="12">
-        <v>45681</v>
-      </c>
-      <c r="F42" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="G42" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="H42" s="13">
-        <v>272.158421511628</v>
-      </c>
-      <c r="I42" s="13">
-        <v>9</v>
-      </c>
-      <c r="J42" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K42" t="s" s="8">
-        <v>116</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="14">
-        <v>118</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E43" s="12">
-        <v>45701</v>
-      </c>
-      <c r="F43" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="G43" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="H43" s="13">
-        <v>236.750182051282</v>
-      </c>
-      <c r="I43" s="13">
-        <v>9</v>
-      </c>
-      <c r="J43" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K43" t="s" s="8">
-        <v>119</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="14">
-        <v>121</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E44" s="12">
-        <v>45680</v>
-      </c>
-      <c r="F44" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="G44" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="H44" s="13">
-        <v>71.81285</v>
-      </c>
-      <c r="I44" s="13">
-        <v>8</v>
-      </c>
-      <c r="J44" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K44" t="s" s="8">
-        <v>122</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="14">
-        <v>124</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E45" s="12">
-        <v>45710</v>
-      </c>
-      <c r="F45" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="G45" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="H45" s="13">
-        <v>2063.813633333330</v>
-      </c>
-      <c r="I45" s="13">
-        <v>3</v>
-      </c>
-      <c r="J45" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K45" t="s" s="8">
-        <v>125</v>
-      </c>
+      <c r="A45" s="18"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="14">
-        <v>127</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E46" s="12">
-        <v>45679</v>
-      </c>
-      <c r="F46" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="G46" t="s" s="8">
-        <v>129</v>
-      </c>
-      <c r="H46" s="13">
-        <v>315.145779069767</v>
-      </c>
-      <c r="I46" s="13">
-        <v>6</v>
-      </c>
-      <c r="J46" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K46" t="s" s="8">
-        <v>128</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="14">
-        <v>130</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E47" s="12">
-        <v>45670</v>
-      </c>
-      <c r="F47" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="G47" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="H47" s="13">
-        <v>115.787659554140</v>
-      </c>
-      <c r="I47" s="13">
-        <v>11</v>
-      </c>
-      <c r="J47" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s" s="8">
-        <v>131</v>
-      </c>
+      <c r="A47" s="18"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/Data_file/import_OB.xlsx
+++ b/Data_file/import_OB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -58,175 +58,58 @@
     <t>OB-INVENTORY</t>
   </si>
   <si>
-    <t>NRSF8-H03-0001-227</t>
-  </si>
-  <si>
-    <t>IMP ปุ่มจับ ทอง ซิงค์ 30x27 มม.(1H00700500P)</t>
+    <t>NFGH4-SF-0001-240</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN รุ่น FM60140T7(DR-L) ขนาด 1358x457x284 mm. สีขาว</t>
   </si>
   <si>
     <t>ผลิต</t>
   </si>
   <si>
-    <t>408010007</t>
-  </si>
-  <si>
-    <t>BROJ0000276</t>
-  </si>
-  <si>
-    <t>NFG01-1111-A5-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครงพับผ้าสามเหลี่ยม A5 แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060055</t>
-  </si>
-  <si>
-    <t>BROJ0000487</t>
-  </si>
-  <si>
-    <t>NFG01-1111-B-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครงพับผ้า 2 ชั้น B10-B11 แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060044</t>
-  </si>
-  <si>
-    <t>NFG01-A0-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครง A แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060002</t>
-  </si>
-  <si>
-    <t>NFG01-B0-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครง B แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060018</t>
-  </si>
-  <si>
-    <t>NFG01-C0-1ACH-WH-L</t>
-  </si>
-  <si>
-    <t>โครง C แบบบ้าน 1A</t>
-  </si>
-  <si>
-    <t>201060034</t>
-  </si>
-  <si>
-    <t>FG01-264-01WHITE-L</t>
-  </si>
-  <si>
-    <t>ซัพพอร์ตมาตรฐาน ขาว-L</t>
-  </si>
-  <si>
-    <t>203030005</t>
-  </si>
-  <si>
-    <t>FG01-264-01WHITE-R</t>
-  </si>
-  <si>
-    <t>ซัพพอร์ตมาตรฐาน ขาว R</t>
-  </si>
-  <si>
-    <t>203030004</t>
-  </si>
-  <si>
-    <t>RSF8-801-P001-002</t>
-  </si>
-  <si>
-    <t>พุกตะกั่ว 3/8(500/กล่อง)</t>
-  </si>
-  <si>
-    <t>409230008</t>
-  </si>
-  <si>
-    <t>RSF8-801-N003-003/U</t>
-  </si>
-  <si>
-    <t>น้อตตัวผู้ 3/8 เกลียวยาว 2-1/2"(500/กล่อง)</t>
-  </si>
-  <si>
-    <t>409170006</t>
-  </si>
-  <si>
-    <t>RSF8-801-H001-002</t>
-  </si>
-  <si>
-    <t>แหวนสปริงชุบรุ้ง M10(1500/กล่อง)</t>
-  </si>
-  <si>
-    <t>409070002</t>
-  </si>
-  <si>
-    <t>RSF8-801-H002-002</t>
-  </si>
-  <si>
-    <t>แหวนอีแปะ 3/8" ดำ (500/กล่อง)/แหวนอีแปะ 3/8" ไม่ชุป</t>
-  </si>
-  <si>
-    <t>409080006</t>
-  </si>
-  <si>
-    <t>RSF8-801-N009-003</t>
-  </si>
-  <si>
-    <t>Welgreat-Sleeve Anchor M10x100 mm.</t>
-  </si>
-  <si>
-    <t>409170001</t>
-  </si>
-  <si>
-    <t>BROJ0001823</t>
-  </si>
-  <si>
-    <t>NFGH4-SF-0001-038</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก MOGEN ขนาด 32x350x250 mm. ข้าง R สีขาว</t>
-  </si>
-  <si>
-    <t>301010011</t>
-  </si>
-  <si>
-    <t>BROJ0000613</t>
-  </si>
-  <si>
-    <t>NFGH4-SF-0001-039</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก MOGEN ขนาด 32x350x250 mm. ข้าง L สีขาว</t>
-  </si>
-  <si>
-    <t>301010010</t>
-  </si>
-  <si>
-    <t>NMS02-220-0060x0060-1.5</t>
-  </si>
-  <si>
-    <t>เหล็กกล่อง 60x60x1.4 mm./เหล็กกล่อง 60x60x1.5 mm.(16.8กก.)</t>
-  </si>
-  <si>
-    <t>401010018</t>
-  </si>
-  <si>
-    <t>BROJ0001044</t>
-  </si>
-  <si>
-    <t>NMS02-220-0038x0019x1.2ST</t>
-  </si>
-  <si>
-    <t>เหล็กกล่อง 38x19x1.2 mm.(บันได)(5.8)</t>
-  </si>
-  <si>
-    <t>401010011</t>
+    <t>301010060</t>
+  </si>
+  <si>
+    <t>BROJ0002514</t>
+  </si>
+  <si>
+    <t>NFGH4-SF-0001-032</t>
+  </si>
+  <si>
+    <t>โครงเหล็ก MOGEN รุ่น F56100 ขนาด 958x400x350 mm. สีขาว</t>
+  </si>
+  <si>
+    <t>301010053</t>
+  </si>
+  <si>
+    <t>BROJ0002807</t>
+  </si>
+  <si>
+    <t>OB-สินค้าโชว์</t>
+  </si>
+  <si>
+    <t>MOG-สินค้าโชว์</t>
+  </si>
+  <si>
+    <t>SWH0002S100</t>
+  </si>
+  <si>
+    <t>SWH02 (SHOW) ฝักบัวอาบน้ำ 1 ฟังก์ชั่น พร้อมสายฝักบัว และขอแขวน</t>
+  </si>
+  <si>
+    <t>สินค้าโชว์</t>
+  </si>
+  <si>
+    <t>OB2558</t>
+  </si>
+  <si>
+    <t>OB-คลังวัตถุดิบ 1</t>
+  </si>
+  <si>
+    <t>MOG-คลังวัตถุดิบ 1</t>
+  </si>
+  <si>
+    <t>สินค้าสำเร็จรูป 1</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="7">
-        <v>45514</v>
+        <v>45694</v>
       </c>
       <c r="F2" t="s" s="8">
         <v>15</v>
@@ -1635,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="9">
-        <v>55</v>
+        <v>331.1</v>
       </c>
       <c r="I2" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s" s="8">
         <v>17</v>
@@ -1662,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="7">
-        <v>45535</v>
+        <v>45710</v>
       </c>
       <c r="F3" t="s" s="8">
         <v>20</v>
@@ -1671,10 +1554,10 @@
         <v>21</v>
       </c>
       <c r="H3" s="9">
-        <v>765</v>
+        <v>143</v>
       </c>
       <c r="I3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s" s="8">
         <v>17</v>
@@ -1688,723 +1571,371 @@
     </row>
     <row r="4" ht="49.65" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s" s="8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s" s="8">
         <v>14</v>
       </c>
       <c r="E4" s="7">
-        <v>45535</v>
+        <v>43466</v>
       </c>
       <c r="F4" t="s" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="9">
-        <v>765</v>
+        <v>138.0722</v>
       </c>
       <c r="I4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s" s="8">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s" s="8">
         <v>26</v>
       </c>
       <c r="L4" t="s" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="49.65" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s" s="8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="8">
         <v>14</v>
       </c>
       <c r="E5" s="7">
-        <v>45535</v>
+        <v>43731</v>
       </c>
       <c r="F5" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="H5" s="9">
+        <v>174.7994</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="H5" s="9">
-        <v>1530</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s" s="8">
-        <v>17</v>
-      </c>
       <c r="K5" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s" s="8">
         <v>29</v>
-      </c>
-      <c r="L5" t="s" s="8">
-        <v>23</v>
       </c>
     </row>
     <row r="6" ht="49.65" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s" s="8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s" s="8">
         <v>14</v>
       </c>
       <c r="E6" s="7">
-        <v>45535</v>
+        <v>44247</v>
       </c>
       <c r="F6" t="s" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="9">
-        <v>1530</v>
+        <v>177.1255</v>
       </c>
       <c r="I6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s" s="13">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s" s="14">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="8">
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>45535</v>
+        <v>44240</v>
       </c>
       <c r="F7" t="s" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H7" s="9">
-        <v>1530</v>
+        <v>186.9031</v>
       </c>
       <c r="I7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s" s="14">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="34.05" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
-      <c r="C8" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7">
-        <v>45535</v>
-      </c>
-      <c r="F8" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="H8" s="9">
-        <v>33.8333333333333</v>
-      </c>
-      <c r="I8" s="10">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" ht="34.05" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="C9" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45535</v>
-      </c>
-      <c r="F9" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="H9" s="9">
-        <v>33.8333333333333</v>
-      </c>
-      <c r="I9" s="10">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45535</v>
-      </c>
-      <c r="F10" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="H10" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="I10" s="10">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" ht="35.65" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7">
-        <v>45535</v>
-      </c>
-      <c r="F11" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s" s="13">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45535</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I12" s="10">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="L12" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45535</v>
-      </c>
-      <c r="F13" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.652777777777778</v>
-      </c>
-      <c r="I13" s="10">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="L13" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="15"/>
-      <c r="C14" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E14" s="16">
-        <v>45535</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="H14" s="17">
-        <v>8</v>
-      </c>
-      <c r="I14" s="17">
-        <v>84</v>
-      </c>
-      <c r="J14" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s" s="13">
-        <v>56</v>
-      </c>
-      <c r="L14" t="s" s="14">
-        <v>23</v>
-      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="15"/>
-      <c r="C15" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E15" s="16">
-        <v>45644</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1522</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s" s="14">
-        <v>57</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="15"/>
-      <c r="C16" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E16" s="16">
-        <v>45644</v>
-      </c>
-      <c r="F16" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1522</v>
-      </c>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s" s="14">
-        <v>57</v>
-      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="15"/>
-      <c r="C17" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16">
-        <v>45644</v>
-      </c>
-      <c r="F17" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1522</v>
-      </c>
-      <c r="I17" s="17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="L17" t="s" s="14">
-        <v>57</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="15"/>
-      <c r="C18" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16">
-        <v>45644</v>
-      </c>
-      <c r="F18" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="H18" s="17">
-        <v>761</v>
-      </c>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s" s="14">
-        <v>57</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="15"/>
-      <c r="C19" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E19" s="16">
-        <v>45644</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="H19" s="17">
-        <v>761</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K19" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s" s="14">
-        <v>57</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="15"/>
-      <c r="C20" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E20" s="16">
-        <v>45548</v>
-      </c>
-      <c r="F20" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="H20" s="17">
-        <v>41</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K20" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="L20" t="s" s="14">
-        <v>61</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="15"/>
-      <c r="C21" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E21" s="16">
-        <v>45548</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="H21" s="17">
-        <v>41</v>
-      </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K21" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="L21" t="s" s="14">
-        <v>61</v>
-      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="15"/>
-      <c r="C22" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E22" s="16">
-        <v>45586</v>
-      </c>
-      <c r="F22" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="H22" s="17">
-        <v>570</v>
-      </c>
-      <c r="I22" s="17">
-        <v>8</v>
-      </c>
-      <c r="J22" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K22" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s" s="14">
-        <v>68</v>
-      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="15"/>
-      <c r="C23" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E23" s="16">
-        <v>45586</v>
-      </c>
-      <c r="F23" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="G23" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="H23" s="17">
-        <v>180</v>
-      </c>
-      <c r="I23" s="17">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="K23" t="s" s="13">
-        <v>71</v>
-      </c>
-      <c r="L23" t="s" s="14">
-        <v>68</v>
-      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="18"/>

--- a/Data_file/import_OB.xlsx
+++ b/Data_file/import_OB.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -49,96 +57,46 @@
     <t>note</t>
   </si>
   <si>
-    <t>OB-ผลิต</t>
+    <t>ชื่อเอกสาร run เองได้เลยครับ ในกรณีรวบเอกสาร</t>
   </si>
   <si>
-    <t>MOG-ผลิต</t>
+    <t>วันที่</t>
   </si>
   <si>
-    <t>OB-INVENTORY</t>
+    <t>OB-Internal Transfer</t>
   </si>
   <si>
-    <t>NFGH4-SF-0001-240</t>
+    <t>รหัสสินค้า</t>
   </si>
   <si>
-    <t>โครงเหล็ก MOGEN รุ่น FM60140T7(DR-L) ขนาด 1358x457x284 mm. สีขาว</t>
+    <t>ไม่ต้องใส่ครับ</t>
   </si>
   <si>
-    <t>ผลิต</t>
+    <t>จำนวน</t>
   </si>
   <si>
-    <t>301010060</t>
+    <t>สินค้าสำเร็จรูป 1: Receipts</t>
   </si>
   <si>
-    <t>BROJ0002514</t>
-  </si>
-  <si>
-    <t>NFGH4-SF-0001-032</t>
-  </si>
-  <si>
-    <t>โครงเหล็ก MOGEN รุ่น F56100 ขนาด 958x400x350 mm. สีขาว</t>
-  </si>
-  <si>
-    <t>301010053</t>
-  </si>
-  <si>
-    <t>BROJ0002807</t>
-  </si>
-  <si>
-    <t>OB-สินค้าโชว์</t>
-  </si>
-  <si>
-    <t>MOG-สินค้าโชว์</t>
-  </si>
-  <si>
-    <t>SWH0002S100</t>
-  </si>
-  <si>
-    <t>SWH02 (SHOW) ฝักบัวอาบน้ำ 1 ฟังก์ชั่น พร้อมสายฝักบัว และขอแขวน</t>
-  </si>
-  <si>
-    <t>สินค้าโชว์</t>
-  </si>
-  <si>
-    <t>OB2558</t>
-  </si>
-  <si>
-    <t>OB-คลังวัตถุดิบ 1</t>
-  </si>
-  <si>
-    <t>MOG-คลังวัตถุดิบ 1</t>
-  </si>
-  <si>
-    <t>สินค้าสำเร็จรูป 1</t>
+    <t>Mogen-OB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="60" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;* #,##0.00&quot; &quot;;&quot;-&quot;* #,##0.00&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -330,101 +288,158 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -626,7 +641,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -644,7 +659,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +688,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -698,7 +713,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,7 +738,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -748,7 +763,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +788,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +813,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +838,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +863,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +888,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,9 +901,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -905,7 +926,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -923,7 +944,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +969,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +994,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1019,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1044,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1069,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1094,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1119,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1144,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1169,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,9 +1182,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1177,7 +1204,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1195,7 +1222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,7 +1426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1451,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,283 +1464,178 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="49.65" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:12" ht="49.65" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" t="s" s="6">
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>45694</v>
-      </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9">
-        <v>331.1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="48.05" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>12</v>
-      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="48" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7">
-        <v>45710</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9">
-        <v>143</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="49.65" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>24</v>
-      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="49.65" customHeight="1">
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7">
-        <v>43466</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="H4" s="9">
-        <v>138.0722</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="49.65" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>24</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="49.65" customHeight="1">
+      <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43731</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9">
-        <v>174.7994</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" ht="49.65" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>24</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="49.65" customHeight="1">
+      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7">
-        <v>44247</v>
-      </c>
-      <c r="F6" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9">
-        <v>177.1255</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s" s="14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>30</v>
-      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="32.1" customHeight="1">
+      <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7">
-        <v>44240</v>
-      </c>
-      <c r="F7" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9">
-        <v>186.9031</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s" s="14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="34.05" customHeight="1">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="34.049999999999997" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
@@ -1727,7 +1649,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" ht="34.05" customHeight="1">
+    <row r="9" spans="1:12" ht="34.049999999999997" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
@@ -1741,7 +1663,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" spans="1:12" ht="32.1" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
@@ -1755,7 +1677,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" ht="35.65" customHeight="1">
+    <row r="11" spans="1:12" ht="35.700000000000003" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
@@ -1769,7 +1691,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
@@ -1783,7 +1705,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
@@ -1797,7 +1719,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="15"/>
       <c r="C14" s="8"/>
@@ -1811,7 +1733,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
       <c r="C15" s="8"/>
@@ -1825,7 +1747,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
       <c r="C16" s="8"/>
@@ -1839,7 +1761,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="15"/>
       <c r="C17" s="8"/>
@@ -1853,7 +1775,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="15"/>
       <c r="C18" s="8"/>
@@ -1867,7 +1789,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
@@ -1881,7 +1803,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
       <c r="C20" s="8"/>
@@ -1895,7 +1817,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
       <c r="C21" s="8"/>
@@ -1909,7 +1831,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="15"/>
       <c r="C22" s="8"/>
@@ -1923,7 +1845,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="15"/>
       <c r="C23" s="8"/>
@@ -1937,7 +1859,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="15"/>
       <c r="C24" s="8"/>
@@ -1951,7 +1873,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="15"/>
       <c r="C25" s="8"/>
@@ -1965,7 +1887,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="15"/>
       <c r="C26" s="8"/>
@@ -1979,7 +1901,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8"/>
@@ -1993,7 +1915,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="15"/>
       <c r="C28" s="8"/>
@@ -2007,7 +1929,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="15"/>
       <c r="C29" s="8"/>
@@ -2021,7 +1943,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="15"/>
       <c r="C30" s="8"/>
@@ -2035,7 +1957,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="15"/>
       <c r="C31" s="8"/>
@@ -2049,7 +1971,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="15"/>
       <c r="C32" s="8"/>
@@ -2063,7 +1985,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="15"/>
       <c r="C33" s="8"/>
@@ -2077,7 +1999,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="15"/>
       <c r="C34" s="8"/>
@@ -2091,7 +2013,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="18"/>
       <c r="B35" s="15"/>
       <c r="C35" s="8"/>
@@ -2105,7 +2027,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="18"/>
       <c r="B36" s="15"/>
       <c r="C36" s="8"/>
@@ -2119,7 +2041,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="15"/>
       <c r="C37" s="8"/>
@@ -2133,7 +2055,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="15"/>
       <c r="C38" s="8"/>
@@ -2147,7 +2069,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="18"/>
       <c r="B39" s="15"/>
       <c r="C39" s="8"/>
@@ -2161,7 +2083,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="18"/>
       <c r="B40" s="15"/>
       <c r="C40" s="8"/>
@@ -2175,7 +2097,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="18"/>
       <c r="B41" s="15"/>
       <c r="C41" s="8"/>
@@ -2189,7 +2111,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
@@ -2203,7 +2125,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="15"/>
       <c r="C43" s="8"/>
@@ -2217,7 +2139,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="18"/>
       <c r="B44" s="15"/>
       <c r="C44" s="8"/>
@@ -2231,7 +2153,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" ht="20.05" customHeight="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="15"/>
       <c r="C45" s="8"/>
@@ -2245,7 +2167,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" ht="20.05" customHeight="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="15"/>
       <c r="C46" s="8"/>
@@ -2259,7 +2181,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="18"/>
       <c r="B47" s="15"/>
       <c r="C47" s="8"/>
@@ -2274,8 +2196,8 @@
       <c r="L47" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
